--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEC507A-FEC4-6C43-BC93-9AC83AE9F272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CD43EF-7CDC-8748-9E95-F4CD9C72E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="6" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,6 @@
     <t>Machine learning</t>
   </si>
   <si>
-    <t>\underline{Master thesis}:  \emph{Public sector as a shelter ? The impact of graduating in a recession on selection into public employment.}\\
-\underline{Advisor}: \href{https://www.parisschoolofeconomics.eu/en/maurin-eric/}{Eric Maurin}</t>
-  </si>
-  <si>
     <t>Research and evaluation officer</t>
   </si>
   <si>
@@ -256,409 +252,414 @@
     <t>current</t>
   </si>
   <si>
-    <t>I work in the research and statistics department of the institution in charge of all family, disability, housing and minimum income allowances in France. I use these administrative data for policy evaluations and research.
+    <t>Experimental evaluation of an activation programme for single mothers in poverty in France</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>coauthors</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Pre-print</t>
+  </si>
+  <si>
+    <t>Thesis chapter</t>
+  </si>
+  <si>
+    <t>With Laudine Carbuccia, Carlo Barone and Coralie Chevalier</t>
+  </si>
+  <si>
+    <t>Mitigating the socioeconomic gap in early childcare enrolment</t>
+  </si>
+  <si>
+    <t>Evidence from a mixed-method, multi-arm randomised experiment</t>
+  </si>
+  <si>
+    <t>I introduce and motivate the general framework of my PhD by discussing structural changes in education, gender dynamics and politics. I discuss the main contributions of each chapter.</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>draftAvailable</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Sciences Po Paris</t>
+  </si>
+  <si>
+    <t>Dauphine</t>
+  </si>
+  <si>
+    <t>Master I: Public Affairs</t>
+  </si>
+  <si>
+    <t>Master II: Public policies and opinions</t>
+  </si>
+  <si>
+    <t>2nd year bachelor Economics and management</t>
+  </si>
+  <si>
+    <t>Teacher assistant: Evaluating public policies</t>
+  </si>
+  <si>
+    <t>S2 2018</t>
+  </si>
+  <si>
+    <t>S2 2023</t>
+  </si>
+  <si>
+    <t>S2 2020</t>
+  </si>
+  <si>
+    <t>S2 2021</t>
+  </si>
+  <si>
+    <t>S2 2013</t>
+  </si>
+  <si>
+    <t>S2 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest lecturer: Macroeconomics </t>
+  </si>
+  <si>
+    <t>Assistant professor (temporary)</t>
+  </si>
+  <si>
+    <t>Paris School of Economics - EHESS</t>
+  </si>
+  <si>
+    <t>Science track</t>
+  </si>
+  <si>
+    <t>We recruited 1850 pregnant mothers in 7 maternity wards around Paris and randomly assigned them to either receive information on childcare (T1), placebo informations on babies' well-being (C) or information and personalised administrative support for applications (T2). Information has no effect on average but administrative support increases application and access to daycare. However, the increased access to daycare only concerns the high-education group.</t>
+  </si>
+  <si>
+    <t>The effect of active labour market policies on single mothers' subjective well-being</t>
+  </si>
+  <si>
+    <t>With Saad Loutfi</t>
+  </si>
+  <si>
+    <t>We conducted three waves of survey across 4 cohorts of the Reliance randomised experiment. We analyse the effect of the programme on participants well-being at different moments after the end of the programme.</t>
+  </si>
+  <si>
+    <t>Evidence from a multisite market design randomised experiment in France</t>
+  </si>
+  <si>
+    <t>We used algorithm to assign daycare seats to 20 000 households and we match these data with that of the family allowance fund. We analyse the effect of accessing daycare on labour market participation, couple stability and subsequent inequalities.</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Gender economics</t>
+  </si>
+  <si>
+    <t>The effect of accessing daycare on households' earnings</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>France Stratégie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \emph{L'apport des évaluations des investissements sociaux dans la jeunesse}</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Social investment for the youth conference</t>
+  </si>
+  <si>
+    <t>LIEPP (Sciences Po)</t>
+  </si>
+  <si>
+    <t>Seminar on education policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \it{École à 2 ans : Une maternelle plus précoce et plus longue améliore-t-elle la réussite des élèves ?}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OECD \&amp;  US institute for Education Sciences (IES)</t>
+  </si>
+  <si>
+    <t>International conference: Using educational research and innovation to address inequality and achievement gaps in education</t>
+  </si>
+  <si>
+    <t>Association française de sciences économique \&amp; DG Trésor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \emph{Quand la scolarisation à 2 ans n'apporte pas les effets attendus : Analyse quasi-expérimentales à partir du panel 2007}</t>
+  </si>
+  <si>
+    <t>Evaluating public policies conference</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>Washington DC</t>
+  </si>
+  <si>
+    <t>OECD expert group:  ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
+  </si>
+  <si>
+    <t>Paris I Sorbonne</t>
+  </si>
+  <si>
+    <t>Public economics seminar</t>
+  </si>
+  <si>
+    <t>\emph{J-PAL-IPP seminar}</t>
+  </si>
+  <si>
+    <t>\emph{Rage against the matching}</t>
+  </si>
+  <si>
+    <t>\emph{Tax burden on the poor}</t>
+  </si>
+  <si>
+    <t>\emph{Welfare-to-What?}</t>
+  </si>
+  <si>
+    <t>sep 2016</t>
+  </si>
+  <si>
+    <t>jul 2017</t>
+  </si>
+  <si>
+    <t>dec 2017</t>
+  </si>
+  <si>
+    <t>oct 2018</t>
+  </si>
+  <si>
+    <t>dec 2019</t>
+  </si>
+  <si>
+    <t>nov 2020</t>
+  </si>
+  <si>
+    <t>may 2024</t>
+  </si>
+  <si>
+    <t>\emph{Demand for international standards of evidence : thoughts from a French perspective}, présenté à la réunion du groupe d'expert de l'OCDE ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
+  </si>
+  <si>
+    <t>Collective</t>
+  </si>
+  <si>
+    <t>Investigating the analytical robustness of the social and behavioural sciences</t>
+  </si>
+  <si>
+    <t>Conducted replication analysis of two social and behavioral science studies for the Multi 100 project, examining the impact of analyst choices on research outcomes. Replicated Behrman et al. (JPE 2015) on monetary incentives for students and teachers and Angrist and Lavy (AER 2009) on high-school exam achievement awards.</t>
+  </si>
+  <si>
+    <t>Multi - 100 project</t>
+  </si>
+  <si>
+    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/phd_dissertation_aheimroot.pdf}{\faExternalLink}</t>
+  </si>
+  <si>
+    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/combeheim2024.pdf}{\faExternalLink}</t>
+  </si>
+  <si>
+    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/heim2024.pdf}{\faExternalLink}</t>
+  </si>
+  <si>
+    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/galitzineheim2024.pdf}{\faExternalLink}</t>
+  </si>
+  <si>
+    <t>LIEPP \&amp; Presage (Sciences Po)</t>
+  </si>
+  <si>
+    <t>Research Workshop | Early childcare, inequalities, and women's professional careers</t>
+  </si>
+  <si>
+    <t>Research Workshop | Welfare-to-work policies in France</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Econ</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Data visualisation</t>
+  </si>
+  <si>
+    <t>Progr</t>
+  </si>
+  <si>
+    <t>Rmarkdown</t>
+  </si>
+  <si>
+    <t>\LaTeX</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Main field</t>
+  </si>
+  <si>
+    <t>Secondary field</t>
+  </si>
+  <si>
+    <t>Advanced user</t>
+  </si>
+  <si>
+    <t>Past experience</t>
+  </si>
+  <si>
+    <t>moderate experience</t>
+  </si>
+  <si>
+    <t>beginner</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>External lecturer</t>
+  </si>
+  <si>
+    <t>Sciences po executive: Management of public policies</t>
+  </si>
+  <si>
+    <t>S2 2024</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>\href{https://www.strategie.gouv.fr/membres/arthur-heim}{France stratégie}</t>
+  </si>
+  <si>
+    <t>\href{https://www.cnesco.fr/}{National council of school system evaluation (Cnesco)}</t>
+  </si>
+  <si>
+    <t>\href{https://caf.fr/professionnels/etudes-et-international}{National family allowance fund (Cnaf)}</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>\textsc{Matlab}\xspace</t>
+  </si>
+  <si>
+    <t>Regularly</t>
+  </si>
+  <si>
+    <t>Data wrangling \&amp; visualisation ; econometrics, machine learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data formatting, functional programming </t>
+  </si>
+  <si>
+    <t>Reports \&amp; presentations</t>
+  </si>
+  <si>
+    <t>\textsc{Stata}\xspace</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Data manipulation and econometrics</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Object oriented programming and data science</t>
+  </si>
+  <si>
+    <t>\textsc{Python}</t>
+  </si>
+  <si>
+    <t>\textsc{R}\xspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproducible research, integration with \LaTeX, presentations, websites </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \emph{Income support strategies to reduce inequalities : Insights from France}, International seminar on "Using educational research and innovation to address inequality and achievement gaps in education".</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] I work in the research and statistics department of the institution in charge of all family, disability, housing and minimum income allowances in France. I use these administrative data for policy evaluations and research.
 \\ I designed and ran a randomised control trial of a welfare-to-work programme for single mothers on long term welfare.
 \\ I set-up a multi-site large scale market design experiment in a partnership with École polytechnique to assign daycare seats for local governments in France.</t>
   </si>
   <si>
-    <t>I was a member of the evaluation committee of the national anti-poverty strategy and provided many literature reviews, notes and proposals.</t>
-  </si>
-  <si>
-    <t>Experimental evaluation of an activation programme for single mothers in poverty in France</t>
-  </si>
-  <si>
-    <t>subtitle</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>coauthors</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Pre-print</t>
-  </si>
-  <si>
-    <t>Thesis chapter</t>
-  </si>
-  <si>
-    <t>With Laudine Carbuccia, Carlo Barone and Coralie Chevalier</t>
-  </si>
-  <si>
-    <t>Mitigating the socioeconomic gap in early childcare enrolment</t>
-  </si>
-  <si>
-    <t>Evidence from a mixed-method, multi-arm randomised experiment</t>
-  </si>
-  <si>
-    <t>I introduce and motivate the general framework of my PhD by discussing structural changes in education, gender dynamics and politics. I discuss the main contributions of each chapter.</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
-    <t>draftAvailable</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Sciences Po Paris</t>
-  </si>
-  <si>
-    <t>Dauphine</t>
-  </si>
-  <si>
-    <t>Master I: Public Affairs</t>
-  </si>
-  <si>
-    <t>Master II: Public policies and opinions</t>
-  </si>
-  <si>
-    <t>2nd year bachelor Economics and management</t>
-  </si>
-  <si>
-    <t>Teacher assistant: Evaluating public policies</t>
-  </si>
-  <si>
-    <t>S2 2018</t>
-  </si>
-  <si>
-    <t>S2 2023</t>
-  </si>
-  <si>
-    <t>S2 2020</t>
-  </si>
-  <si>
-    <t>S2 2021</t>
-  </si>
-  <si>
-    <t>S2 2013</t>
-  </si>
-  <si>
-    <t>S2 2014</t>
-  </si>
-  <si>
-    <t>36h Course jointly organised with Clément Lacouette Fougère on public policy evaluations from an economic perspective (18h) while the other part of the class was based on qualitative evaluation</t>
-  </si>
-  <si>
-    <t>36h course on macroeconomics of open economies and monetary unions + history of the Eurozone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest lecturer: Macroeconomics </t>
-  </si>
-  <si>
-    <t>Assistant professor (temporary)</t>
-  </si>
-  <si>
-    <t>Paris School of Economics - EHESS</t>
-  </si>
-  <si>
-    <t>Science track</t>
-  </si>
-  <si>
-    <t>We recruited 1850 pregnant mothers in 7 maternity wards around Paris and randomly assigned them to either receive information on childcare (T1), placebo informations on babies' well-being (C) or information and personalised administrative support for applications (T2). Information has no effect on average but administrative support increases application and access to daycare. However, the increased access to daycare only concerns the high-education group.</t>
-  </si>
-  <si>
-    <t>The effect of active labour market policies on single mothers' subjective well-being</t>
-  </si>
-  <si>
-    <t>With Saad Loutfi</t>
-  </si>
-  <si>
-    <t>We conducted three waves of survey across 4 cohorts of the Reliance randomised experiment. We analyse the effect of the programme on participants well-being at different moments after the end of the programme.</t>
-  </si>
-  <si>
-    <t>Evidence from a multisite market design randomised experiment in France</t>
-  </si>
-  <si>
-    <t>We used algorithm to assign daycare seats to 20 000 households and we match these data with that of the family allowance fund. We analyse the effect of accessing daycare on labour market participation, couple stability and subsequent inequalities.</t>
-  </si>
-  <si>
-    <t>Matlab</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Gender economics</t>
-  </si>
-  <si>
-    <t>The effect of accessing daycare on households' earnings</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>France Stratégie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \emph{L'apport des évaluations des investissements sociaux dans la jeunesse}</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Social investment for the youth conference</t>
-  </si>
-  <si>
-    <t>LIEPP (Sciences Po)</t>
-  </si>
-  <si>
-    <t>Seminar on education policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \it{École à 2 ans : Une maternelle plus précoce et plus longue améliore-t-elle la réussite des élèves ?}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OECD \&amp;  US institute for Education Sciences (IES)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \emph{Income support strategies to reduce inequalities : Insights from France}, International seminar on "Using educational research and innovation to address inequality and achievement gaps in education".\\ [3pt]</t>
-  </si>
-  <si>
-    <t>International conference: Using educational research and innovation to address inequality and achievement gaps in education</t>
-  </si>
-  <si>
-    <t>Association française de sciences économique \&amp; DG Trésor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \emph{Quand la scolarisation à 2 ans n'apporte pas les effets attendus : Analyse quasi-expérimentales à partir du panel 2007}</t>
-  </si>
-  <si>
-    <t>Evaluating public policies conference</t>
-  </si>
-  <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Washington DC</t>
-  </si>
-  <si>
-    <t>OECD expert group:  ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
-  </si>
-  <si>
-    <t>Paris I Sorbonne</t>
-  </si>
-  <si>
-    <t>Public economics seminar</t>
-  </si>
-  <si>
-    <t>\emph{J-PAL-IPP seminar}</t>
-  </si>
-  <si>
-    <t>\emph{Rage against the matching}</t>
-  </si>
-  <si>
-    <t>\emph{Tax burden on the poor}</t>
-  </si>
-  <si>
-    <t>\emph{Welfare-to-What?}</t>
-  </si>
-  <si>
-    <t>sep 2016</t>
-  </si>
-  <si>
-    <t>jul 2017</t>
-  </si>
-  <si>
-    <t>dec 2017</t>
-  </si>
-  <si>
-    <t>oct 2018</t>
-  </si>
-  <si>
-    <t>dec 2019</t>
-  </si>
-  <si>
-    <t>nov 2020</t>
-  </si>
-  <si>
-    <t>may 2024</t>
-  </si>
-  <si>
-    <t>\emph{Demand for international standards of evidence : thoughts from a French perspective}, présenté à la réunion du groupe d'expert de l'OCDE ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
-  </si>
-  <si>
-    <t>Collective</t>
-  </si>
-  <si>
-    <t>Investigating the analytical robustness of the social and behavioural sciences</t>
-  </si>
-  <si>
-    <t>Conducted replication analysis of two social and behavioral science studies for the Multi 100 project, examining the impact of analyst choices on research outcomes. Replicated Behrman et al. (JPE 2015) on monetary incentives for students and teachers and Angrist and Lavy (AER 2009) on high-school exam achievement awards.</t>
-  </si>
-  <si>
-    <t>Multi - 100 project</t>
-  </si>
-  <si>
-    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/phd_dissertation_aheimroot.pdf}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/combeheim2024.pdf}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/heim2024.pdf}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/galitzineheim2024.pdf}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>LIEPP \&amp; Presage (Sciences Po)</t>
-  </si>
-  <si>
-    <t>Research Workshop | Early childcare, inequalities, and women's professional careers</t>
-  </si>
-  <si>
-    <t>Research Workshop | Welfare-to-work policies in France</t>
-  </si>
-  <si>
-    <t>What</t>
-  </si>
-  <si>
-    <t>Econ</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>Data visualisation</t>
-  </si>
-  <si>
-    <t>Progr</t>
-  </si>
-  <si>
-    <t>Rmarkdown</t>
-  </si>
-  <si>
-    <t>\LaTeX</t>
-  </si>
-  <si>
-    <t>Lang</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Main field</t>
-  </si>
-  <si>
-    <t>Secondary field</t>
-  </si>
-  <si>
-    <t>Advanced user</t>
-  </si>
-  <si>
-    <t>Past experience</t>
-  </si>
-  <si>
-    <t>moderate experience</t>
-  </si>
-  <si>
-    <t>beginner</t>
-  </si>
-  <si>
-    <t>native</t>
-  </si>
-  <si>
-    <t>professional</t>
-  </si>
-  <si>
-    <t>External lecturer</t>
-  </si>
-  <si>
-    <t>Sciences po executive: Management of public policies</t>
-  </si>
-  <si>
-    <t>S2 2024</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>4 hour lecture on anti-poverty policies in France</t>
-  </si>
-  <si>
-    <t>\underline{PhD thesis}: \emph{\href{https://www.dropbox.com/scl/fi/2gdd9eogoq9syfjdx41j5/PhD_Dissertation_AHeimRoot.pdf?rlkey=rjq1j0exprigaholiiwo6zdzz&amp;dl=0}{Social investment and the changing face of poverty: Essays on the design and evaluation of social and family policies in France}} \\
- \underline{PhD advisor:} \href{https://www.parisschoolofeconomics.eu/en/gurgand-marc/}{Marc Gurgand} ;  \underline{ Jury}:  \href{http://www.anneboring.com/}{Anne Boring}, \href{https://sites.google.com/site/rafaellalive/}{Rafael Lalive}, \href{https://sites.google.com/view/camilleterrier/accueil}{Camille Terrier}, \href{https://www.parisschoolofeconomics.eu/en/macours-karen/}{Karen Macours}</t>
-  </si>
-  <si>
-    <t>\href{https://www.strategie.gouv.fr/membres/arthur-heim}{France stratégie}</t>
-  </si>
-  <si>
-    <t>\href{https://www.cnesco.fr/}{National council of school system evaluation (Cnesco)}</t>
-  </si>
-  <si>
-    <t>\href{https://caf.fr/professionnels/etudes-et-international}{National family allowance fund (Cnaf)}</t>
-  </si>
-  <si>
-    <t>Teacher assistant of Professor Denis Fougère, 20h supplementary lectures on applied econometrics using R. Sample lectures: \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture1_intro.pdf}{Introduction \faExternalLink},  \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture2_cia_rct.pdf}{RCT \faExternalLink}, and \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture_3_advancedrct.pdf}{advanced RCT \faExternalLink}, \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture_4_introdid.pdf}{Diff-in-diff, \faExternalLink}</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>\textsc{Matlab}\xspace</t>
-  </si>
-  <si>
-    <t>Regularly</t>
-  </si>
-  <si>
-    <t>Data wrangling \&amp; visualisation ; econometrics, machine learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data formatting, functional programming </t>
-  </si>
-  <si>
-    <t>Reports \&amp; presentations</t>
-  </si>
-  <si>
-    <t>\textsc{Stata}\xspace</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>Data manipulation and econometrics</t>
-  </si>
-  <si>
-    <t>Beginner</t>
-  </si>
-  <si>
-    <t>Object oriented programming and data science</t>
-  </si>
-  <si>
-    <t>\textsc{Python}</t>
-  </si>
-  <si>
-    <t>\textsc{R}\xspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproducible research, integration with \LaTeX, presentations, websites </t>
+    <t>[\faAngleDoubleRight] I was a member of the evaluation committee of the national anti-poverty strategy and provided literature reviews, notes and proposals.</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] \underline{PhD thesis}: \emph{\href{https://www.dropbox.com/scl/fi/2gdd9eogoq9syfjdx41j5/PhD_Dissertation_AHeimRoot.pdf?rlkey=rjq1j0exprigaholiiwo6zdzz&amp;dl=0}{Social investment and the changing face of poverty: Essays on the design and evaluation of social and family policies in France}} \\
+ \underline{PhD advisor:} \href{https://www.parisschoolofeconomics.eu/en/gurgand-marc/}{Marc Gurgand}  \\
+ \underline{ Jury}:  \href{http://www.anneboring.com/}{Anne Boring}, \href{https://sites.google.com/site/rafaellalive/}{Rafael Lalive}, \href{https://sites.google.com/view/camilleterrier/accueil}{Camille Terrier}, \href{https://www.parisschoolofeconomics.eu/en/macours-karen/}{Karen Macours}</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] \underline{Master thesis}:  \emph{Public sector as a shelter ? The impact of graduating in a recession on selection into public employment.}\\
+\underline{Advisor}: \href{https://www.parisschoolofeconomics.eu/en/maurin-eric/}{Eric Maurin}</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] 4 hour lecture on anti-poverty policies in France</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] Teacher assistant of Professor Denis Fougère, 20h supplementary lectures on applied econometrics using R. Sample lectures: \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture1_intro.pdf}{Introduction \faExternalLink},  \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture2_cia_rct.pdf}{RCT \faExternalLink}, and \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture_3_advancedrct.pdf}{advanced RCT \faExternalLink}, \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture_4_introdid.pdf}{Diff-in-diff, \faExternalLink}</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] 36h Course jointly organised with Clément Lacouette Fougère on public policy evaluations from an economic perspective (18h) while the other part of the class was based on qualitative evaluation</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] 36h course on macroeconomics of open economies and monetary unions + history of the Eurozone.</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1133,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1153,13 +1154,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="85">
+    <row r="2" spans="1:5" ht="102">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1167,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1184,13 +1185,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1204,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1218,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1229,10 +1230,10 @@
         <v>2007</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1244,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77EE8B4-4BE1-2846-B95C-A1F9E8046A96}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1282,27 +1283,27 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="119">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
@@ -1313,13 +1314,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>24</v>
@@ -1328,7 +1329,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>23</v>
@@ -1339,13 +1340,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>24</v>
@@ -1363,16 +1364,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>26</v>
@@ -1387,19 +1388,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="8" t="s">
@@ -1427,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C18CEC3-D8CE-8244-8B3C-CC0F80A2D5E6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1439,79 +1440,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1531,189 +1532,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1743,16 +1744,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>19</v>
@@ -1761,128 +1762,128 @@
         <v>20</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>2024</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>2024</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1890,22 +1891,22 @@
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -1913,22 +1914,22 @@
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>2026</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -1936,19 +1937,19 @@
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E9">
         <v>2024</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -1970,7 +1971,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1989,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>20</v>
@@ -2001,19 +2002,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -2021,19 +2022,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2041,16 +2042,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2058,19 +2059,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -2078,19 +2079,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2098,19 +2099,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2118,19 +2119,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2138,19 +2139,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2158,19 +2159,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2188,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A382872-5565-5645-A6BC-BA5C4FC5CD7B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2219,83 +2220,83 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CD43EF-7CDC-8748-9E95-F4CD9C72E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2688C26-2DFD-654A-AACC-34D0B85439CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="6" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="conferences" sheetId="6" r:id="rId6"/>
     <sheet name="teaching" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,9 +179,6 @@
     <t>Mar 2016</t>
   </si>
   <si>
-    <t>Mar 2023</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">We use market design to define assignment mechanisms for the daycare market. We conduct a field experiment using them in France and analyse </t>
     </r>
@@ -480,9 +477,6 @@
     <t>Multi - 100 project</t>
   </si>
   <si>
-    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/phd_dissertation_aheimroot.pdf}{\faExternalLink}</t>
-  </si>
-  <si>
     <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/combeheim2024.pdf}{\faExternalLink}</t>
   </si>
   <si>
@@ -660,6 +654,12 @@
   </si>
   <si>
     <t>[\faAngleDoubleRight] 36h course on macroeconomics of open economies and monetary unions + history of the Eurozone.</t>
+  </si>
+  <si>
+    <t>\href{https://theses.fr/2024EHES0027}{\faExternalLink}</t>
+  </si>
+  <si>
+    <t>Mar 2022</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1168,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1185,13 +1185,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1230,10 +1230,10 @@
         <v>2007</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77EE8B4-4BE1-2846-B95C-A1F9E8046A96}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1283,7 +1283,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="119">
@@ -1291,19 +1291,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
@@ -1317,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>42</v>
@@ -1329,7 +1329,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>23</v>
@@ -1343,7 +1343,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>42</v>
@@ -1367,7 +1367,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>42</v>
@@ -1391,7 +1391,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
@@ -1440,79 +1440,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
         <v>175</v>
-      </c>
-      <c r="C1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
         <v>183</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1532,189 +1532,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
         <v>152</v>
       </c>
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
         <v>155</v>
       </c>
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384B73DB-6D0E-814C-974E-66FDADDCAF85}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1"/>
@@ -1744,16 +1744,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>19</v>
@@ -1762,128 +1762,128 @@
         <v>20</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>2024</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>2024</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1891,22 +1891,22 @@
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
         <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -1914,22 +1914,22 @@
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>2026</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -1937,19 +1937,19 @@
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>2024</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -1990,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>20</v>
@@ -2002,19 +2002,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -2022,19 +2022,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2042,16 +2042,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2059,19 +2059,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -2079,19 +2079,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2099,19 +2099,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2119,19 +2119,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
         <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" t="s">
-        <v>118</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2139,19 +2139,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
         <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>114</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2159,19 +2159,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
         <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2189,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A382872-5565-5645-A6BC-BA5C4FC5CD7B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2220,83 +2220,83 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>170</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
       <c r="G3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
       <c r="G4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2688C26-2DFD-654A-AACC-34D0B85439CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B64DFC-60B1-6944-9FD2-66A5D15B2F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="4" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,6 @@
     <t>I evaluate a randomised experiment of an intensive welfare-to-work programme targetting single parents on long-term welfare in France. I find no effect on labour market participation and poverty after the end of the programme.</t>
   </si>
   <si>
-    <t>We challenge the idea that the French tax-benefit system "make work pay" for single parents and analyse reactions following a randomised intensive welfare-to-work programme. Using instrumental distribution regression, we find strong reactions at the intensive margin consistent with the incentives of the tax benefit system.</t>
-  </si>
-  <si>
     <t>Major</t>
   </si>
   <si>
@@ -660,6 +657,9 @@
   </si>
   <si>
     <t>Mar 2022</t>
+  </si>
+  <si>
+    <t>We challenge the idea that the French tax-benefit system "make work pay" for single parents and analyse reactions following a randomised intensive welfare-to-work programme. Using instrumental distribution regression and fuzzy dif in dif, we find strong heterogeneous reactions at the intensive margin and on families' composition. The latters are consistent with the incentives of the tax benefit system which we interpret as.</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1168,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1185,13 +1185,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1230,10 +1230,10 @@
         <v>2007</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77EE8B4-4BE1-2846-B95C-A1F9E8046A96}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1283,7 +1283,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="119">
@@ -1291,19 +1291,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
@@ -1317,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>42</v>
@@ -1329,7 +1329,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>23</v>
@@ -1343,7 +1343,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>42</v>
@@ -1367,7 +1367,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>42</v>
@@ -1391,7 +1391,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
@@ -1440,79 +1440,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
         <v>176</v>
       </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
         <v>181</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>182</v>
-      </c>
-      <c r="C6" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
         <v>184</v>
-      </c>
-      <c r="C7" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1532,189 +1532,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
         <v>148</v>
       </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
         <v>150</v>
       </c>
-      <c r="B11" t="s">
-        <v>151</v>
-      </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
         <v>153</v>
       </c>
-      <c r="B16" t="s">
-        <v>154</v>
-      </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384B73DB-6D0E-814C-974E-66FDADDCAF85}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1"/>
@@ -1744,16 +1744,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>19</v>
@@ -1762,10 +1762,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
@@ -1776,19 +1776,19 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>2024</v>
@@ -1814,18 +1814,18 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>2024</v>
@@ -1837,7 +1837,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -1851,39 +1851,39 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1891,22 +1891,22 @@
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -1914,22 +1914,22 @@
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>2026</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -1937,19 +1937,19 @@
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9">
         <v>2024</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -1990,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>20</v>
@@ -2002,19 +2002,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -2022,19 +2022,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2042,16 +2042,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2059,19 +2059,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -2079,19 +2079,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2099,19 +2099,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2119,19 +2119,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2139,19 +2139,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
         <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>113</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2159,19 +2159,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
         <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2220,83 +2220,83 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>167</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>168</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B64DFC-60B1-6944-9FD2-66A5D15B2F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9B6E3-549D-DF42-A25C-7D5583D999D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="4" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="8" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
     <sheet name="appointments" sheetId="2" r:id="rId2"/>
-    <sheet name="skills" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="7" r:id="rId4"/>
-    <sheet name="Thesis" sheetId="5" r:id="rId5"/>
-    <sheet name="conferences" sheetId="6" r:id="rId6"/>
-    <sheet name="teaching" sheetId="4" r:id="rId7"/>
+    <sheet name="ScientificExpertise" sheetId="8" r:id="rId3"/>
+    <sheet name="skills" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId5"/>
+    <sheet name="Thesis" sheetId="5" r:id="rId6"/>
+    <sheet name="Research" sheetId="9" r:id="rId7"/>
+    <sheet name="PaperDetails" sheetId="11" r:id="rId8"/>
+    <sheet name="ResearchProjects" sheetId="10" r:id="rId9"/>
+    <sheet name="conferences" sheetId="6" r:id="rId10"/>
+    <sheet name="teaching" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="271">
   <si>
     <t>Degree</t>
   </si>
@@ -294,9 +298,6 @@
     <t>Sciences Po Paris</t>
   </si>
   <si>
-    <t>Dauphine</t>
-  </si>
-  <si>
     <t>Master I: Public Affairs</t>
   </si>
   <si>
@@ -632,18 +633,10 @@
     <t>[\faAngleDoubleRight] I was a member of the evaluation committee of the national anti-poverty strategy and provided literature reviews, notes and proposals.</t>
   </si>
   <si>
-    <t>[\faAngleDoubleRight] \underline{PhD thesis}: \emph{\href{https://www.dropbox.com/scl/fi/2gdd9eogoq9syfjdx41j5/PhD_Dissertation_AHeimRoot.pdf?rlkey=rjq1j0exprigaholiiwo6zdzz&amp;dl=0}{Social investment and the changing face of poverty: Essays on the design and evaluation of social and family policies in France}} \\
- \underline{PhD advisor:} \href{https://www.parisschoolofeconomics.eu/en/gurgand-marc/}{Marc Gurgand}  \\
- \underline{ Jury}:  \href{http://www.anneboring.com/}{Anne Boring}, \href{https://sites.google.com/site/rafaellalive/}{Rafael Lalive}, \href{https://sites.google.com/view/camilleterrier/accueil}{Camille Terrier}, \href{https://www.parisschoolofeconomics.eu/en/macours-karen/}{Karen Macours}</t>
-  </si>
-  <si>
     <t>[\faAngleDoubleRight] \underline{Master thesis}:  \emph{Public sector as a shelter ? The impact of graduating in a recession on selection into public employment.}\\
 \underline{Advisor}: \href{https://www.parisschoolofeconomics.eu/en/maurin-eric/}{Eric Maurin}</t>
   </si>
   <si>
-    <t>[\faAngleDoubleRight] 4 hour lecture on anti-poverty policies in France</t>
-  </si>
-  <si>
     <t>[\faAngleDoubleRight] Teacher assistant of Professor Denis Fougère, 20h supplementary lectures on applied econometrics using R. Sample lectures: \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture1_intro.pdf}{Introduction \faExternalLink},  \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture2_cia_rct.pdf}{RCT \faExternalLink}, and \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture_3_advancedrct.pdf}{advanced RCT \faExternalLink}, \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture_4_introdid.pdf}{Diff-in-diff, \faExternalLink}</t>
   </si>
   <si>
@@ -660,13 +653,285 @@
   </si>
   <si>
     <t>We challenge the idea that the French tax-benefit system "make work pay" for single parents and analyse reactions following a randomised intensive welfare-to-work programme. Using instrumental distribution regression and fuzzy dif in dif, we find strong heterogeneous reactions at the intensive margin and on families' composition. The latters are consistent with the incentives of the tax benefit system which we interpret as.</t>
+  </si>
+  <si>
+    <t>Member of the Scientific Council</t>
+  </si>
+  <si>
+    <t>Premier Pas' Seminar series</t>
+  </si>
+  <si>
+    <t>Cnaf - HCFEA - France Stratégie</t>
+  </si>
+  <si>
+    <t>Strategy for the Fight Against and Prevention of Poverty, chaired by Louis Schweitzer.</t>
+  </si>
+  <si>
+    <t>Member of the Evaluation Committee</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>IGPDE</t>
+  </si>
+  <si>
+    <t>Training civil servants to public policy evaluation</t>
+  </si>
+  <si>
+    <t>EN3S</t>
+  </si>
+  <si>
+    <t>Evaluating Public Health Policies: "New" Evaluation Methods.</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] lectures on anti-poverty policies in France, methods for public policy evaluation</t>
+  </si>
+  <si>
+    <t>Research Workshop | Training and support for the long-term unemployed</t>
+  </si>
+  <si>
+    <t>TEPP \&amp; LEMMA</t>
+  </si>
+  <si>
+    <t>Sables d'Olonne</t>
+  </si>
+  <si>
+    <t>In review at Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t>oct 2024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We use market design to define assignment mechanisms for the daycare market. We conduct a field experiment using them in France and analyse </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who gets what and why.</t>
+    </r>
+  </si>
+  <si>
+    <t>Investigating how administrative burden and search costs affect social inequalities in early childcare access, a randomised controlled trial</t>
+  </si>
+  <si>
+    <t>PhD Thesis</t>
+  </si>
+  <si>
+    <t>We challenge the idea that the French tax-benefit system "make work pay" for single parents and analyse reactions following a randomised intensive welfare-to-work programme. Using instrumental distribution regression and fuzzy dif in dif, we find strong heterogeneous reactions at the intensive margin and on families' composition. The latters are consistent with the incentives of the tax benefit system which we interpret as optimisation.</t>
+  </si>
+  <si>
+    <t>Nancy (France)</t>
+  </si>
+  <si>
+    <t>Paris Area</t>
+  </si>
+  <si>
+    <t>7 cities across France</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>1850 pregnant mothers recruited in maternity wards around Paris, randomly assigned to control, information on childcare applications, or information and administrative support.</t>
+  </si>
+  <si>
+    <t>5 cohorts of roughly 400 single parents randomly assigned each year to a control group or the programme from 2018 to 2022. Panel Data from National Family Allowance Fund.</t>
+  </si>
+  <si>
+    <t>Definition and application of assignment mechanism for daycare seats in 7 large urban area in France for up to 4 years. Researchs on who gets what and why</t>
+  </si>
+  <si>
+    <t>Matching data from ISAJE to administrative data from the Family allowance fund and other sources to measure the causal effects of accessing daycare</t>
+  </si>
+  <si>
+    <t>Policy makring: building software implementing algorithms built from ISAJE at scale in France</t>
+  </si>
+  <si>
+    <t>ERC Grant with Julien Combe</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Reliance: Randomised welfare-to-work for single mothers on long term welfare</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>POSAJE: Multi-arm RCT to foster access to formal early childcare</t>
+  </si>
+  <si>
+    <t>ISAJE: Market design experiment of daycare assignments with random tie-breaks</t>
+  </si>
+  <si>
+    <t>MESAJE: Measuring the causal effects of accessing daycare</t>
+  </si>
+  <si>
+    <t>VISAJE: Randomised experiment on the role of information and outside options for childcare choices</t>
+  </si>
+  <si>
+    <t>Principal investigator</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>ADAJE: Scaling-up assignment mechanisms for daycare</t>
+  </si>
+  <si>
+    <t>Rmarkdown, Quarto</t>
+  </si>
+  <si>
+    <t>\textsc{Github}\xspace</t>
+  </si>
+  <si>
+    <t>version control, collaborative research</t>
+  </si>
+  <si>
+    <t>bibtex_ID</t>
+  </si>
+  <si>
+    <t>Heim2024a</t>
+  </si>
+  <si>
+    <t>CombeHeim2024</t>
+  </si>
+  <si>
+    <t>Heim2024</t>
+  </si>
+  <si>
+    <t>GalitzineHeim2024</t>
+  </si>
+  <si>
+    <t>CarbucciaEtAl2024</t>
+  </si>
+  <si>
+    <t>Rage against the matching:
+ fairness and inequalities in a market design experiment of daycare assignments in France</t>
+  </si>
+  <si>
+    <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/combeheim2024.pdf}{Draft: \faExternalLink}</t>
+  </si>
+  <si>
+    <t>Submitted to the European Economic Review</t>
+  </si>
+  <si>
+    <t>Welfare to what ?
+Experimental evaluation of an activation programme for single mothers in poverty in France</t>
+  </si>
+  <si>
+    <t>Tax burden on the poor
+Single mothers' optimisation behaviours following an experimental activation programme in France</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We use market design to define assignment mechanisms for the daycare market. We conduct a field experiment using them in France and analyse </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who gets what and why.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+\\ \href{https://www.dropbox.com/scl/fi/7r9c1lglfu04naqnbad4c/CombeHeim2024.pdf?rlkey=44rkwhus5nwj9kjq0gn0l4w9b&amp;dl=0}{Draft: \faExternalLink} 
+\\ \href{https://www.dropbox.com/scl/fi/4pvg0chbiwtevwiil5re5/RATM_EN092024.pdf?rlkey=o67gk9trd2pqof8jh6mjjpbz7&amp;dl=0}{Slides: \faExternalLink}</t>
+    </r>
+  </si>
+  <si>
+    <t>Multi-arm RCT in the Paris region measuring the effects of providing information and administrative support to pregnant women to access formal childcare
+\\ \href{https://osf.io/rh7eb/?view_only=ef7409ac646544eaac946374de134892}{Pre-print and replication material: \faExternalLink}</t>
+  </si>
+  <si>
+    <t>RCT of a welfare-to-work programme targetting single parents on long-term welfare in France showing no effect on labour market outcomes
+\\ \href{https://osf.io/rh7eb/?view_only=ef7409ac646544eaac946374de134892}{Pre-print and replication material: \faExternalLink}</t>
+  </si>
+  <si>
+    <t>Intensive margin reactions and effects of family structure of a welfare-to-work programme for single parents consistent with heterogeneous incentives of the French tax-benefit system
+\\ \href{https://www.dropbox.com/scl/fi/xdhov425ez5n1jcxl053r/GalitzineHeim2024.pdf?rlkey=pdun971icjt4biq7ikwrm2ji1&amp;dl=0}{Draft: \faExternalLink} 
+\\ \href{https://www.dropbox.com/scl/fi/9dbpmcefmout7rwrwqvt6/TaxBurdenEnShort.pdf?rlkey=omrpuo36dge0phkd2havhxo5p&amp;dl=0}{Slides: \faExternalLink}</t>
+  </si>
+  <si>
+    <t>multi1002024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://theses.fr/2024EHES0027}{Online access: \faExternalLink} 
+\\ \href{https://www.dropbox.com/scl/fi/7yl7ri3en9vak8h2nyt44/R-sum-AHeimPhDV2.pdf?rlkey=w9k81hwyt6eu6390tgd1mqa6u&amp;dl=0}{Summary in French: \faExternalLink} </t>
+  </si>
+  <si>
+    <t>Conducted replications of Angrist and Lavy (AER 2009) and Behrman et al. (JPE 2015) for the Multi 100 project, examining the impact of analyst choices on research outcomes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[\faAngleDoubleRight] \underline{PhD thesis}: \emph{\href{https://www.dropbox.com/scl/fi/2gdd9eogoq9syfjdx41j5/PhD_Dissertation_AHeimRoot.pdf?rlkey=rjq1j0exprigaholiiwo6zdzz&amp;dl=0}{Social investment and the changing face of poverty: Essays on the design and evaluation of social and family policies in France}} \\
+ \underline{PhD advisor:} \href{https://www.parisschoolofeconomics.eu/en/gurgand-marc/}{Marc Gurgand}  \\
+ \underline{ Jury}:  \href{http://www.anneboring.com/}{Anne Boring}, \href{https://sites.google.com/site/rafaellalive/}{Rafael Lalive}, \href{https://sites.google.com/view/camilleterrier/accueil}{Camille Terrier}, \href{https://www.parisschoolofeconomics.eu/en/macours-karen/}{Karen Macours} \\
+\href{https://theses.fr/2024EHES0027}{Online access: \faExternalLink} 
+\\ \href{https://www.dropbox.com/scl/fi/7yl7ri3en9vak8h2nyt44/R-sum-AHeimPhDV2.pdf?rlkey=w9k81hwyt6eu6390tgd1mqa6u&amp;dl=0}{Summary in French: \faExternalLink} </t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -747,6 +1012,21 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -769,7 +1049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -795,6 +1075,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1133,7 +1433,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1160,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102">
+    <row r="2" spans="1:5" ht="136">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1168,13 +1468,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1185,13 +1485,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1233,7 +1533,369 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89004A4C-135E-AE46-AB58-A9B77E14C3A4}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="73.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F11">
+    <sortCondition descending="1" ref="D3:D11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A382872-5565-5645-A6BC-BA5C4FC5CD7B}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1908,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1291,19 +1953,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
@@ -1317,7 +1979,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>42</v>
@@ -1329,7 +1991,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>23</v>
@@ -1343,7 +2005,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>42</v>
@@ -1367,7 +2029,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>42</v>
@@ -1391,7 +2053,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
@@ -1425,11 +2087,174 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C18CEC3-D8CE-8244-8B3C-CC0F80A2D5E6}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8740F03-494A-C94E-AF3E-269AA0D15B6B}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="21"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="21"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="21"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C18CEC3-D8CE-8244-8B3C-CC0F80A2D5E6}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1440,79 +2265,90 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s">
-        <v>172</v>
-      </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
         <v>175</v>
       </c>
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
         <v>183</v>
-      </c>
-      <c r="C7" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +2356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6485D477-D7E5-024B-9061-3CD1D38D44A9}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1532,189 +2368,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
         <v>149</v>
       </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
         <v>152</v>
       </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1722,12 +2558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384B73DB-6D0E-814C-974E-66FDADDCAF85}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1"/>
@@ -1788,7 +2624,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1">
@@ -1814,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
@@ -1837,7 +2673,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -1857,13 +2693,13 @@
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
@@ -1877,13 +2713,13 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
+        <v>211</v>
+      </c>
+      <c r="E6">
+        <v>2024</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1894,10 +2730,10 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>74</v>
@@ -1906,7 +2742,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -1914,10 +2750,10 @@
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -1929,7 +2765,7 @@
         <v>2026</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -1937,19 +2773,19 @@
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>2024</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -1966,22 +2802,515 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89004A4C-135E-AE46-AB58-A9B77E14C3A4}">
-  <dimension ref="A1:G10"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EF90B3-AE5D-E640-BB84-BA742FCD421F}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="33.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="85">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85">
+      <c r="A3" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="119">
+      <c r="A4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="221">
+      <c r="A5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="221">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="102">
+      <c r="A7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="119">
+      <c r="A8" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2026</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="153">
+      <c r="A9" s="25"/>
+      <c r="B9" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="/href%7bhttps:/www.parisschoolofeconomics.eu/docs/heim-arthur/phd_dissertation_aheimroot.pdf%7d%7b/faExternalLink%5d%7d" xr:uid="{E528D0C1-40E6-9A46-AC74-0A4552B7F3A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17">
+      <c r="A1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="136">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="25">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="289">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="25">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="153">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="25">
+        <v>2024</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="306">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="25">
+        <v>2024</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="170">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="25">
+        <v>2024</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="372">
+      <c r="B7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="409.6">
+      <c r="B8" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="25">
+        <v>2026</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" ht="85">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="25">
+        <v>2024</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="/href%7bhttps:/www.parisschoolofeconomics.eu/docs/heim-arthur/phd_dissertation_aheimroot.pdf%7d%7b/faExternalLink%5d%7d" xr:uid="{6DE31D50-7839-8247-B80A-8F4A436F6DD4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59C71-C1DE-6345-8FA1-424DE87D1118}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="5" width="73.5" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1989,314 +3318,158 @@
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
+        <v>217</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>222</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
+        <v>218</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>221</v>
+      </c>
+      <c r="G3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="G4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" t="s">
-        <v>126</v>
+        <v>219</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
+        <v>220</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>225</v>
+      </c>
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" t="s">
-        <v>188</v>
+        <v>220</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
-    <sortCondition descending="1" ref="D2:D10"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A382872-5565-5645-A6BC-BA5C4FC5CD7B}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>196</v>
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9B6E3-549D-DF42-A25C-7D5583D999D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E7BC6-5DB3-8D43-95B6-A927BBEF9375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="8" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="281">
   <si>
     <t>Degree</t>
   </si>
@@ -925,6 +925,36 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>field experiment</t>
+  </si>
+  <si>
+    <t>market design</t>
+  </si>
+  <si>
+    <t>Conference of consensus</t>
+  </si>
+  <si>
+    <t>collective report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consensus conference: The effect of grade repetition </t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Conference of consensus where I was in charge of the systematic review, policy brief and training session for the jury</t>
+  </si>
+  <si>
+    <t>Social inequalities in education: a review</t>
+  </si>
+  <si>
+    <t>Worked with many research teams on different aspects of the research questions. Conducted on quasi-experimental analysis of the effect of private tutoring</t>
   </si>
 </sst>
 </file>
@@ -3213,7 +3243,7 @@
       </c>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" ht="372">
+    <row r="7" spans="1:9" ht="119">
       <c r="B7" s="25" t="s">
         <v>63</v>
       </c>
@@ -3237,7 +3267,7 @@
       </c>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" ht="409.6">
+    <row r="8" spans="1:9" ht="119">
       <c r="B8" s="25" t="s">
         <v>97</v>
       </c>
@@ -3296,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59C71-C1DE-6345-8FA1-424DE87D1118}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3331,7 +3361,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3356,6 +3386,9 @@
       <c r="G2" t="s">
         <v>230</v>
       </c>
+      <c r="H2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -3379,6 +3412,9 @@
       <c r="G3" t="s">
         <v>230</v>
       </c>
+      <c r="H3" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -3402,6 +3438,9 @@
       <c r="G4" t="s">
         <v>230</v>
       </c>
+      <c r="H4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -3425,6 +3464,9 @@
       <c r="G5" t="s">
         <v>229</v>
       </c>
+      <c r="H5" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -3448,6 +3490,9 @@
       <c r="G6" t="s">
         <v>229</v>
       </c>
+      <c r="H6" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -3470,6 +3515,61 @@
       </c>
       <c r="G7" t="s">
         <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8">
+        <v>2013</v>
+      </c>
+      <c r="E8">
+        <v>2014</v>
+      </c>
+      <c r="F8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9">
+        <v>2014</v>
+      </c>
+      <c r="E9">
+        <v>2016</v>
+      </c>
+      <c r="F9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E7BC6-5DB3-8D43-95B6-A927BBEF9375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9795D7E4-6180-5746-AA80-E26BB0DAEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="8" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="10" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -637,9 +637,6 @@
 \underline{Advisor}: \href{https://www.parisschoolofeconomics.eu/en/maurin-eric/}{Eric Maurin}</t>
   </si>
   <si>
-    <t>[\faAngleDoubleRight] Teacher assistant of Professor Denis Fougère, 20h supplementary lectures on applied econometrics using R. Sample lectures: \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture1_intro.pdf}{Introduction \faExternalLink},  \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture2_cia_rct.pdf}{RCT \faExternalLink}, and \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture_3_advancedrct.pdf}{advanced RCT \faExternalLink}, \href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/lecture_4_introdid.pdf}{Diff-in-diff, \faExternalLink}</t>
-  </si>
-  <si>
     <t>[\faAngleDoubleRight] 36h Course jointly organised with Clément Lacouette Fougère on public policy evaluations from an economic perspective (18h) while the other part of the class was based on qualitative evaluation</t>
   </si>
   <si>
@@ -939,9 +936,6 @@
     <t>Conference of consensus</t>
   </si>
   <si>
-    <t>collective report</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consensus conference: The effect of grade repetition </t>
   </si>
   <si>
@@ -955,6 +949,12 @@
   </si>
   <si>
     <t>Worked with many research teams on different aspects of the research questions. Conducted on quasi-experimental analysis of the effect of private tutoring</t>
+  </si>
+  <si>
+    <t>Collective report</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] Teacher assistant of Professor Denis Fougère, 20h supplementary lectures on applied econometrics using R.</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1504,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1607,16 +1607,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
         <v>124</v>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A382872-5565-5645-A6BC-BA5C4FC5CD7B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1885,7 +1885,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1905,7 +1905,7 @@
         <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1925,7 +1925,7 @@
         <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +1989,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>22</v>
@@ -2154,19 +2154,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" t="s">
         <v>198</v>
       </c>
-      <c r="C2" t="s">
-        <v>199</v>
-      </c>
       <c r="D2" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>262</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -2177,19 +2177,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2200,22 +2200,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
         <v>202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>203</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2226,22 +2226,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>172</v>
@@ -2350,13 +2350,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1">
@@ -2723,7 +2723,7 @@
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -2743,7 +2743,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>2024</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E2" s="25">
         <v>2024</v>
@@ -2890,7 +2890,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="85">
@@ -2910,7 +2910,7 @@
         <v>2024</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>23</v>
@@ -2960,7 +2960,7 @@
         <v>2024</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>23</v>
@@ -2972,13 +2972,13 @@
     <row r="6" spans="1:8" ht="221">
       <c r="A6" s="25"/>
       <c r="B6" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="25">
         <v>2024</v>
@@ -3048,7 +3048,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="25">
         <v>2024</v>
@@ -3081,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>64</v>
@@ -3110,38 +3110,38 @@
     </row>
     <row r="2" spans="1:9" ht="136">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="25">
         <v>2024</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="289">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>46</v>
@@ -3153,36 +3153,36 @@
         <v>2024</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="153">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" s="25">
         <v>2024</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>23</v>
@@ -3193,11 +3193,11 @@
     </row>
     <row r="5" spans="1:9" ht="306">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>52</v>
@@ -3209,7 +3209,7 @@
         <v>2024</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>23</v>
@@ -3220,23 +3220,23 @@
     </row>
     <row r="6" spans="1:9" ht="170">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F6" s="25">
         <v>2024</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>23</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="9" spans="1:9" ht="85">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="27" t="s">
@@ -3303,13 +3303,13 @@
         <v>137</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="25">
         <v>2024</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>23</v>
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59C71-C1DE-6345-8FA1-424DE87D1118}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3340,7 +3340,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -3361,174 +3361,174 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>267</v>
-      </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" t="s">
         <v>234</v>
       </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>269</v>
-      </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3537,24 +3537,24 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -3563,13 +3563,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9795D7E4-6180-5746-AA80-E26BB0DAEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AA588-D93C-AC4E-8E70-565892436A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="10" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -865,10 +865,6 @@
 \\ \href{https://osf.io/rh7eb/?view_only=ef7409ac646544eaac946374de134892}{Pre-print and replication material: \faExternalLink}</t>
   </si>
   <si>
-    <t>RCT of a welfare-to-work programme targetting single parents on long-term welfare in France showing no effect on labour market outcomes
-\\ \href{https://osf.io/rh7eb/?view_only=ef7409ac646544eaac946374de134892}{Pre-print and replication material: \faExternalLink}</t>
-  </si>
-  <si>
     <t>Intensive margin reactions and effects of family structure of a welfare-to-work programme for single parents consistent with heterogeneous incentives of the French tax-benefit system
 \\ \href{https://www.dropbox.com/scl/fi/xdhov425ez5n1jcxl053r/GalitzineHeim2024.pdf?rlkey=pdun971icjt4biq7ikwrm2ji1&amp;dl=0}{Draft: \faExternalLink} 
 \\ \href{https://www.dropbox.com/scl/fi/9dbpmcefmout7rwrwqvt6/TaxBurdenEnShort.pdf?rlkey=omrpuo36dge0phkd2havhxo5p&amp;dl=0}{Slides: \faExternalLink}</t>
@@ -955,6 +951,10 @@
   </si>
   <si>
     <t>[\faAngleDoubleRight] Teacher assistant of Professor Denis Fougère, 20h supplementary lectures on applied econometrics using R.</t>
+  </si>
+  <si>
+    <t>RCT of a welfare-to-work programme targetting single parents on long-term welfare in France showing no effect on labour market outcomes
+\\ \href{https://osf.io/qhazf/}{Pre-print and replication material: \faExternalLink}</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1504,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1818,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A382872-5565-5645-A6BC-BA5C4FC5CD7B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1885,7 +1885,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>198</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -2186,10 +2186,10 @@
         <v>105</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2209,10 +2209,10 @@
         <v>107</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="F4" t="s">
         <v>203</v>
@@ -2235,10 +2235,10 @@
         <v>107</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="F5" t="s">
         <v>205</v>
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
@@ -3117,7 +3117,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>214</v>
@@ -3126,7 +3126,7 @@
         <v>2024</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>23</v>
@@ -3162,7 +3162,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="153">
+    <row r="4" spans="1:9" ht="119">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>249</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>248</v>
@@ -3182,7 +3182,7 @@
         <v>2024</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>23</v>
@@ -3209,7 +3209,7 @@
         <v>2024</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>23</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="9" spans="1:9" ht="85">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="27" t="s">
@@ -3309,7 +3309,7 @@
         <v>2024</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>23</v>
@@ -3361,7 +3361,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3375,10 +3375,10 @@
         <v>216</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>265</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>266</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
@@ -3387,7 +3387,7 @@
         <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3401,10 +3401,10 @@
         <v>217</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
         <v>220</v>
@@ -3413,7 +3413,7 @@
         <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3427,10 +3427,10 @@
         <v>218</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F4" t="s">
         <v>222</v>
@@ -3439,7 +3439,7 @@
         <v>229</v>
       </c>
       <c r="H4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3453,10 +3453,10 @@
         <v>218</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
         <v>223</v>
@@ -3465,7 +3465,7 @@
         <v>228</v>
       </c>
       <c r="H5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3479,10 +3479,10 @@
         <v>219</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
         <v>224</v>
@@ -3491,7 +3491,7 @@
         <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3505,10 +3505,10 @@
         <v>219</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>267</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>268</v>
       </c>
       <c r="F7" t="s">
         <v>225</v>
@@ -3517,18 +3517,18 @@
         <v>228</v>
       </c>
       <c r="H7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3537,18 +3537,18 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" t="s">
         <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -3563,13 +3563,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
         <v>229</v>
       </c>
       <c r="H9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AA588-D93C-AC4E-8E70-565892436A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26747336-8E15-E343-8CD5-CEDCD61D71A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="8" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -749,9 +749,6 @@
     <t>Matching data from ISAJE to administrative data from the Family allowance fund and other sources to measure the causal effects of accessing daycare</t>
   </si>
   <si>
-    <t>Policy makring: building software implementing algorithms built from ISAJE at scale in France</t>
-  </si>
-  <si>
     <t>ERC Grant with Julien Combe</t>
   </si>
   <si>
@@ -883,78 +880,81 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">[\faAngleDoubleRight] \underline{PhD thesis}: \emph{\href{https://www.dropbox.com/scl/fi/2gdd9eogoq9syfjdx41j5/PhD_Dissertation_AHeimRoot.pdf?rlkey=rjq1j0exprigaholiiwo6zdzz&amp;dl=0}{Social investment and the changing face of poverty: Essays on the design and evaluation of social and family policies in France}} \\
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>field experiment</t>
+  </si>
+  <si>
+    <t>market design</t>
+  </si>
+  <si>
+    <t>Conference of consensus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consensus conference: The effect of grade repetition </t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Conference of consensus where I was in charge of the systematic review, policy brief and training session for the jury</t>
+  </si>
+  <si>
+    <t>Social inequalities in education: a review</t>
+  </si>
+  <si>
+    <t>Collective report</t>
+  </si>
+  <si>
+    <t>[\faAngleDoubleRight] Teacher assistant of Professor Denis Fougère, 20h supplementary lectures on applied econometrics using R.</t>
+  </si>
+  <si>
+    <t>RCT of a welfare-to-work programme targetting single parents on long-term welfare in France showing no effect on labour market outcomes
+\\ \href{https://osf.io/qhazf/}{Pre-print and replication material: \faExternalLink}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[\faAngleDoubleRight] \underline{PhD thesis}: \emph{\href{https://hal.science/tel-04801852v1}{Social investment and the changing face of poverty: Essays on the design and evaluation of social and family policies in France}} \\
  \underline{PhD advisor:} \href{https://www.parisschoolofeconomics.eu/en/gurgand-marc/}{Marc Gurgand}  \\
  \underline{ Jury}:  \href{http://www.anneboring.com/}{Anne Boring}, \href{https://sites.google.com/site/rafaellalive/}{Rafael Lalive}, \href{https://sites.google.com/view/camilleterrier/accueil}{Camille Terrier}, \href{https://www.parisschoolofeconomics.eu/en/macours-karen/}{Karen Macours} \\
 \href{https://theses.fr/2024EHES0027}{Online access: \faExternalLink} 
 \\ \href{https://www.dropbox.com/scl/fi/7yl7ri3en9vak8h2nyt44/R-sum-AHeimPhDV2.pdf?rlkey=w9k81hwyt6eu6390tgd1mqa6u&amp;dl=0}{Summary in French: \faExternalLink} </t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>field experiment</t>
-  </si>
-  <si>
-    <t>market design</t>
-  </si>
-  <si>
-    <t>Conference of consensus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consensus conference: The effect of grade repetition </t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>Conference of consensus where I was in charge of the systematic review, policy brief and training session for the jury</t>
-  </si>
-  <si>
-    <t>Social inequalities in education: a review</t>
-  </si>
-  <si>
-    <t>Worked with many research teams on different aspects of the research questions. Conducted on quasi-experimental analysis of the effect of private tutoring</t>
-  </si>
-  <si>
-    <t>Collective report</t>
-  </si>
-  <si>
-    <t>[\faAngleDoubleRight] Teacher assistant of Professor Denis Fougère, 20h supplementary lectures on applied econometrics using R.</t>
-  </si>
-  <si>
-    <t>RCT of a welfare-to-work programme targetting single parents on long-term welfare in France showing no effect on labour market outcomes
-\\ \href{https://osf.io/qhazf/}{Pre-print and replication material: \faExternalLink}</t>
+    <t>Policy making: building software implementing algorithms built from ISAJE at scale in France</t>
+  </si>
+  <si>
+    <t>Worked with many research teams on different aspects of the research questions. Conducted a quasi-experimental analysis of the effects of private tutoring</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="136">
+    <row r="2" spans="1:5" ht="119">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1885,7 +1885,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>198</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -2186,10 +2186,10 @@
         <v>105</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2209,10 +2209,10 @@
         <v>107</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
         <v>203</v>
@@ -2235,10 +2235,10 @@
         <v>107</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
         <v>205</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>172</v>
@@ -2350,13 +2350,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3073,15 +3073,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>64</v>
@@ -3110,14 +3110,14 @@
     </row>
     <row r="2" spans="1:9" ht="136">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>214</v>
@@ -3126,7 +3126,7 @@
         <v>2024</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>23</v>
@@ -3137,11 +3137,11 @@
     </row>
     <row r="3" spans="1:9" ht="289">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>46</v>
@@ -3153,36 +3153,36 @@
         <v>2024</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="119">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" s="25">
         <v>2024</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>23</v>
@@ -3193,11 +3193,11 @@
     </row>
     <row r="5" spans="1:9" ht="306">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>52</v>
@@ -3209,7 +3209,7 @@
         <v>2024</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>23</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="6" spans="1:9" ht="170">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
@@ -3236,7 +3236,7 @@
         <v>2024</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>23</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="9" spans="1:9" ht="85">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="27" t="s">
@@ -3309,7 +3309,7 @@
         <v>2024</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>23</v>
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59C71-C1DE-6345-8FA1-424DE87D1118}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3340,7 +3340,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -3361,174 +3361,174 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
         <v>217</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
         <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
         <v>222</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>223</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>219</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
         <v>233</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
       </c>
       <c r="C7" t="s">
         <v>219</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3537,18 +3537,18 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -3563,13 +3563,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26747336-8E15-E343-8CD5-CEDCD61D71A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501C582-2378-7844-89EB-9D1C2E17E0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="8" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="280">
   <si>
     <t>Degree</t>
   </si>
@@ -890,9 +890,6 @@
   </si>
   <si>
     <t>2018</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2017</t>
@@ -1462,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464DC6A-27D2-7946-9BDF-A29EA65BBB42}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1504,7 +1501,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1885,7 +1882,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1937,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77EE8B4-4BE1-2846-B95C-A1F9E8046A96}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2121,7 +2118,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2212,7 +2209,7 @@
         <v>260</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
         <v>203</v>
@@ -2238,7 +2235,7 @@
         <v>260</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>205</v>
@@ -3182,7 +3179,7 @@
         <v>2024</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>23</v>
@@ -3328,7 +3325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59C71-C1DE-6345-8FA1-424DE87D1118}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3361,7 +3358,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3375,10 +3372,10 @@
         <v>216</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>262</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
@@ -3387,7 +3384,7 @@
         <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3404,7 +3401,7 @@
         <v>258</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>220</v>
@@ -3413,7 +3410,7 @@
         <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3430,7 +3427,7 @@
         <v>257</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
         <v>222</v>
@@ -3439,7 +3436,7 @@
         <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3456,7 +3453,7 @@
         <v>257</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
         <v>223</v>
@@ -3465,7 +3462,7 @@
         <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3479,19 +3476,19 @@
         <v>219</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G6" t="s">
         <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3505,10 +3502,10 @@
         <v>219</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="F7" t="s">
         <v>224</v>
@@ -3517,18 +3514,18 @@
         <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3537,18 +3534,18 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
         <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -3563,13 +3560,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
         <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501C582-2378-7844-89EB-9D1C2E17E0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA3920B-EF75-054E-A4A3-9BAC2B091D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="6" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="282">
   <si>
     <t>Degree</t>
   </si>
@@ -952,6 +952,12 @@
   </si>
   <si>
     <t>Worked with many research teams on different aspects of the research questions. Conducted a quasi-experimental analysis of the effects of private tutoring</t>
+  </si>
+  <si>
+    <t>R \&amp; R Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t>R \&amp; R, Nature Human Behaviour</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464DC6A-27D2-7946-9BDF-A29EA65BBB42}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1934,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77EE8B4-4BE1-2846-B95C-A1F9E8046A96}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2833,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EF90B3-AE5D-E640-BB84-BA742FCD421F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:H9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="16"/>
@@ -2975,7 +2981,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="E6" s="25">
         <v>2024</v>
@@ -3070,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
@@ -3227,7 +3233,7 @@
         <v>70</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="F6" s="25">
         <v>2024</v>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA3920B-EF75-054E-A4A3-9BAC2B091D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1200EDF-D269-404A-AC2A-4A75490F44CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="6" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -819,9 +819,6 @@
     <t>\href{https://www.parisschoolofeconomics.eu/docs/heim-arthur/combeheim2024.pdf}{Draft: \faExternalLink}</t>
   </si>
   <si>
-    <t>Submitted to the European Economic Review</t>
-  </si>
-  <si>
     <t>Welfare to what ?
 Experimental evaluation of an activation programme for single mothers in poverty in France</t>
   </si>
@@ -958,6 +955,9 @@
   </si>
   <si>
     <t>R \&amp; R, Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t>R \&amp; R European Economic Review</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1507,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1888,7 +1888,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2166,10 +2166,10 @@
         <v>198</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -2189,10 +2189,10 @@
         <v>105</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2212,10 +2212,10 @@
         <v>107</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
         <v>203</v>
@@ -2238,10 +2238,10 @@
         <v>107</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
         <v>205</v>
@@ -2839,7 +2839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EF90B3-AE5D-E640-BB84-BA742FCD421F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2981,7 +2981,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="25">
         <v>2024</v>
@@ -3076,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
@@ -3120,7 +3120,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>214</v>
@@ -3129,7 +3129,7 @@
         <v>2024</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>23</v>
@@ -3156,7 +3156,7 @@
         <v>2024</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>23</v>
@@ -3173,19 +3173,19 @@
         <v>63</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="F4" s="25">
         <v>2024</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>23</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>52</v>
@@ -3212,7 +3212,7 @@
         <v>2024</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>23</v>
@@ -3233,13 +3233,13 @@
         <v>70</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="25">
         <v>2024</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>23</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="9" spans="1:9" ht="85">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="27" t="s">
@@ -3312,7 +3312,7 @@
         <v>2024</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>23</v>
@@ -3364,7 +3364,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3378,10 +3378,10 @@
         <v>216</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>261</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>262</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
@@ -3390,7 +3390,7 @@
         <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3404,10 +3404,10 @@
         <v>217</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
         <v>220</v>
@@ -3416,7 +3416,7 @@
         <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3430,10 +3430,10 @@
         <v>218</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
         <v>222</v>
@@ -3442,7 +3442,7 @@
         <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3456,10 +3456,10 @@
         <v>218</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
         <v>223</v>
@@ -3468,7 +3468,7 @@
         <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3482,19 +3482,19 @@
         <v>219</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
         <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3508,10 +3508,10 @@
         <v>219</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>264</v>
       </c>
       <c r="F7" t="s">
         <v>224</v>
@@ -3520,18 +3520,18 @@
         <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3540,18 +3540,18 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G8" t="s">
         <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -3566,13 +3566,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
         <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1200EDF-D269-404A-AC2A-4A75490F44CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B8001-2422-9D4F-8534-F4BDE6BC5377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="283">
   <si>
     <t>Degree</t>
   </si>
@@ -958,6 +958,9 @@
   </si>
   <si>
     <t>R \&amp; R European Economic Review</t>
+  </si>
+  <si>
+    <t>Paris School of Economics - EHESS, ED-465, Paris I - Panthéon Sorbonne</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464DC6A-27D2-7946-9BDF-A29EA65BBB42}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1501,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
@@ -3076,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031B8001-2422-9D4F-8534-F4BDE6BC5377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6FCE40-2A0D-B24D-B691-0A66A1D8AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="8220" yWindow="500" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -951,16 +951,16 @@
     <t>Worked with many research teams on different aspects of the research questions. Conducted a quasi-experimental analysis of the effects of private tutoring</t>
   </si>
   <si>
-    <t>R \&amp; R Nature Human Behaviour</t>
-  </si>
-  <si>
     <t>R \&amp; R, Nature Human Behaviour</t>
   </si>
   <si>
-    <t>R \&amp; R European Economic Review</t>
-  </si>
-  <si>
     <t>Paris School of Economics - EHESS, ED-465, Paris I - Panthéon Sorbonne</t>
+  </si>
+  <si>
+    <t>\bf{R \&amp; R} Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t>\bf{R \&amp; R} European Economic Review</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464DC6A-27D2-7946-9BDF-A29EA65BBB42}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EF90B3-AE5D-E640-BB84-BA742FCD421F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="16"/>
@@ -2984,7 +2984,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="25">
         <v>2024</v>
@@ -3054,7 +3054,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="E9" s="25">
         <v>2024</v>
@@ -3079,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
@@ -3182,7 +3182,7 @@
         <v>255</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F4" s="25">
         <v>2024</v>
@@ -3236,7 +3236,7 @@
         <v>70</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F6" s="25">
         <v>2024</v>
@@ -3309,7 +3309,7 @@
         <v>137</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="F9" s="25">
         <v>2024</v>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6FCE40-2A0D-B24D-B691-0A66A1D8AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E652DF0-3895-9041-AD15-43BB39C343C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="500" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="8220" yWindow="500" windowWidth="27240" windowHeight="19200" activeTab="9" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="288">
   <si>
     <t>Degree</t>
   </si>
@@ -961,6 +961,21 @@
   </si>
   <si>
     <t>\bf{R \&amp; R} European Economic Review</t>
+  </si>
+  <si>
+    <t>May 2025</t>
+  </si>
+  <si>
+    <t>Conference| AFEPOP 2025</t>
+  </si>
+  <si>
+    <t>Association of French population economists</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Jun 2024</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1094,7 +1109,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1131,6 +1145,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1579,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89004A4C-135E-AE46-AB58-A9B77E14C3A4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1600,7 +1616,7 @@
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1613,60 +1629,60 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>211</v>
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>132</v>
+        <v>207</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>132</v>
+      <c r="D4" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -1674,19 +1690,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>131</v>
+      <c r="D5" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1694,16 +1710,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>130</v>
+      <c r="D6" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="E6" t="s">
         <v>125</v>
@@ -1714,19 +1730,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>129</v>
+      <c r="D7" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -1734,19 +1750,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>128</v>
+        <v>107</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1754,19 +1770,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1774,19 +1790,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>127</v>
+      <c r="D10" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1794,27 +1810,47 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
+      <c r="F12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F11">
-    <sortCondition descending="1" ref="D3:D11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F12">
+    <sortCondition descending="1" ref="D4:D12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1831,46 +1867,46 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1884,7 +1920,7 @@
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E3" t="s">
@@ -1971,7 +2007,7 @@
       <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1985,51 +2021,51 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="119">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
@@ -2037,23 +2073,23 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
@@ -2061,23 +2097,23 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
@@ -2085,23 +2121,23 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H6" t="s">
@@ -2109,13 +2145,13 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,7 +2181,7 @@
       <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2162,16 +2198,16 @@
       <c r="A2" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>257</v>
       </c>
       <c r="G2" t="s">
@@ -2191,10 +2227,10 @@
       <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>257</v>
       </c>
       <c r="G3" t="s">
@@ -2214,10 +2250,10 @@
       <c r="C4" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>259</v>
       </c>
       <c r="F4" t="s">
@@ -2240,10 +2276,10 @@
       <c r="C5" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>259</v>
       </c>
       <c r="F5" t="s">
@@ -2257,28 +2293,28 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="21"/>
+      <c r="A15" s="20"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,10 +2442,10 @@
       <c r="A1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2627,7 +2663,7 @@
       <c r="D1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2659,7 +2695,7 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2808,7 +2844,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>135</v>
       </c>
       <c r="C9" t="s">
@@ -2828,7 +2864,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1">
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2848,224 +2884,224 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="33.83203125" style="24"/>
+    <col min="1" max="16384" width="33.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="85">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>2024</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="85">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>2024</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="119">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>2024</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="221">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>2024</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="221">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>2024</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="102">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="119">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>2026</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="153">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>2024</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3079,7 +3115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3089,28 +3125,28 @@
       <c r="A1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3118,26 +3154,26 @@
       <c r="A2" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>2024</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3145,26 +3181,26 @@
       <c r="A3" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>2024</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3172,28 +3208,28 @@
       <c r="A4" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>2024</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3201,26 +3237,26 @@
       <c r="A5" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>2024</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3228,99 +3264,99 @@
       <c r="A6" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>2024</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="119">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="119">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>2026</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="85">
       <c r="A9" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>2024</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3357,7 +3393,7 @@
       <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -3380,10 +3416,10 @@
       <c r="C2" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>261</v>
       </c>
       <c r="F2" t="s">
@@ -3406,10 +3442,10 @@
       <c r="C3" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>261</v>
       </c>
       <c r="F3" t="s">
@@ -3432,10 +3468,10 @@
       <c r="C4" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>262</v>
       </c>
       <c r="F4" t="s">
@@ -3458,10 +3494,10 @@
       <c r="C5" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>263</v>
       </c>
       <c r="F5" t="s">
@@ -3484,10 +3520,10 @@
       <c r="C6" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>263</v>
       </c>
       <c r="F6" t="s">
@@ -3510,10 +3546,10 @@
       <c r="C7" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>263</v>
       </c>
       <c r="F7" t="s">

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E652DF0-3895-9041-AD15-43BB39C343C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4A803-8E3A-E743-B99F-B58465EBC7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="500" windowWidth="27240" windowHeight="19200" activeTab="9" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
@@ -385,51 +385,27 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>Social investment for the youth conference</t>
-  </si>
-  <si>
     <t>LIEPP (Sciences Po)</t>
   </si>
   <si>
-    <t>Seminar on education policies</t>
-  </si>
-  <si>
     <t xml:space="preserve"> \it{École à 2 ans : Une maternelle plus précoce et plus longue améliore-t-elle la réussite des élèves ?}</t>
   </si>
   <si>
     <t xml:space="preserve"> OECD \&amp;  US institute for Education Sciences (IES)</t>
   </si>
   <si>
-    <t>International conference: Using educational research and innovation to address inequality and achievement gaps in education</t>
-  </si>
-  <si>
-    <t>Association française de sciences économique \&amp; DG Trésor</t>
-  </si>
-  <si>
     <t xml:space="preserve"> \emph{Quand la scolarisation à 2 ans n'apporte pas les effets attendus : Analyse quasi-expérimentales à partir du panel 2007}</t>
   </si>
   <si>
-    <t>Evaluating public policies conference</t>
-  </si>
-  <si>
     <t>OECD</t>
   </si>
   <si>
     <t>Washington DC</t>
   </si>
   <si>
-    <t>OECD expert group:  ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
-  </si>
-  <si>
     <t>Paris I Sorbonne</t>
   </si>
   <si>
-    <t>Public economics seminar</t>
-  </si>
-  <si>
-    <t>\emph{J-PAL-IPP seminar}</t>
-  </si>
-  <si>
     <t>\emph{Rage against the matching}</t>
   </si>
   <si>
@@ -460,9 +436,6 @@
     <t>may 2024</t>
   </si>
   <si>
-    <t>\emph{Demand for international standards of evidence : thoughts from a French perspective}, présenté à la réunion du groupe d'expert de l'OCDE ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
-  </si>
-  <si>
     <t>Collective</t>
   </si>
   <si>
@@ -620,9 +593,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reproducible research, integration with \LaTeX, presentations, websites </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \emph{Income support strategies to reduce inequalities : Insights from France}, International seminar on "Using educational research and innovation to address inequality and achievement gaps in education".</t>
   </si>
   <si>
     <t>[\faAngleDoubleRight] I work in the research and statistics department of the institution in charge of all family, disability, housing and minimum income allowances in France. I use these administrative data for policy evaluations and research.
@@ -966,9 +936,6 @@
     <t>May 2025</t>
   </si>
   <si>
-    <t>Conference| AFEPOP 2025</t>
-  </si>
-  <si>
     <t>Association of French population economists</t>
   </si>
   <si>
@@ -976,6 +943,39 @@
   </si>
   <si>
     <t>Jun 2024</t>
+  </si>
+  <si>
+    <t>Conference | AFEPOP 2025</t>
+  </si>
+  <si>
+    <t>Seminar | J-pal \&amp; IPP</t>
+  </si>
+  <si>
+    <t>Seminar | Public economics</t>
+  </si>
+  <si>
+    <t>OECD expert group |  ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
+  </si>
+  <si>
+    <t>\emph{Demand for international standards of evidence : thoughts from a French perspective}</t>
+  </si>
+  <si>
+    <t>International conference | Using educational research and innovation to address inequality and achievement gaps in education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \emph{Income support strategies to reduce inequalities : Insights from France}</t>
+  </si>
+  <si>
+    <t>Conference | Social investment for the youths</t>
+  </si>
+  <si>
+    <t>Seminar | education policies</t>
+  </si>
+  <si>
+    <t>Conference | Evaluating public policies</t>
+  </si>
+  <si>
+    <t>AFSE \&amp; DG Trésor</t>
   </si>
 </sst>
 </file>
@@ -1520,13 +1520,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1543,7 +1543,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1598,7 +1598,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1629,19 +1629,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1650,19 +1650,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>23</v>
@@ -1670,19 +1670,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -1690,19 +1690,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1719,10 +1719,10 @@
         <v>107</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1730,19 +1730,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -1750,19 +1750,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1770,19 +1770,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
       <c r="D9" s="27" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1790,19 +1790,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1810,19 +1810,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>107</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
@@ -1839,7 +1839,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
         <v>106</v>
@@ -1891,23 +1891,23 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1927,7 +1927,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1947,7 +1947,7 @@
         <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1967,7 +1967,7 @@
         <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2025,19 +2025,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>23</v>
@@ -2051,7 +2051,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>42</v>
@@ -2063,7 +2063,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>23</v>
@@ -2077,7 +2077,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>42</v>
@@ -2101,7 +2101,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>42</v>
@@ -2125,7 +2125,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>42</v>
@@ -2196,19 +2196,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -2219,19 +2219,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2242,22 +2242,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -2337,90 +2337,90 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2440,189 +2440,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
         <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
         <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
         <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
         <v>152</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
         <v>153</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2696,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1">
@@ -2722,7 +2722,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
@@ -2745,7 +2745,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -2765,13 +2765,13 @@
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
@@ -2785,7 +2785,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>2024</v>
@@ -2845,19 +2845,19 @@
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="B9" s="16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>2024</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E2" s="24">
         <v>2024</v>
@@ -2932,7 +2932,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="85">
@@ -2952,13 +2952,13 @@
         <v>2024</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="119">
@@ -2982,7 +2982,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="221">
@@ -3002,25 +3002,25 @@
         <v>2024</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="221">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E6" s="24">
         <v>2024</v>
@@ -3084,19 +3084,19 @@
     <row r="9" spans="1:8" ht="153">
       <c r="A9" s="24"/>
       <c r="B9" s="26" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E9" s="24">
         <v>2024</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>23</v>
@@ -3123,7 +3123,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>64</v>
@@ -3152,38 +3152,38 @@
     </row>
     <row r="2" spans="1:9" ht="136">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F2" s="24">
         <v>2024</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="289">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>46</v>
@@ -3195,51 +3195,51 @@
         <v>2024</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="119">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F4" s="24">
         <v>2024</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="306">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>52</v>
@@ -3251,34 +3251,34 @@
         <v>2024</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="170">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F6" s="24">
         <v>2024</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>23</v>
@@ -3335,23 +3335,23 @@
     </row>
     <row r="9" spans="1:9" ht="85">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="26" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F9" s="24">
         <v>2024</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>23</v>
@@ -3382,7 +3382,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -3403,174 +3403,174 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" t="s">
-        <v>228</v>
-      </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" t="s">
         <v>256</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3579,24 +3579,24 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -3605,13 +3605,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4A803-8E3A-E743-B99F-B58465EBC7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D5B235-577B-B54E-8B14-9E0F5D089951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="500" windowWidth="27240" windowHeight="19200" activeTab="9" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="8220" yWindow="500" windowWidth="27240" windowHeight="19200" activeTab="2" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="293">
   <si>
     <t>Degree</t>
   </si>
@@ -640,13 +640,7 @@
     <t>Trainer</t>
   </si>
   <si>
-    <t>IGPDE</t>
-  </si>
-  <si>
     <t>Training civil servants to public policy evaluation</t>
-  </si>
-  <si>
-    <t>EN3S</t>
   </si>
   <si>
     <t>Evaluating Public Health Policies: "New" Evaluation Methods.</t>
@@ -976,6 +970,27 @@
   </si>
   <si>
     <t>AFSE \&amp; DG Trésor</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Training futur high-level civil servants to public policy evaluation and anti-poverty policies</t>
+  </si>
+  <si>
+    <t>Institut national des études teritoriales (INET)</t>
+  </si>
+  <si>
+    <t>École nationale supérieure de la sécurité sociale (EN3S)</t>
+  </si>
+  <si>
+    <t>Institut de la gestion publique et du développement économique (IGPDE)</t>
+  </si>
+  <si>
+    <t>Participating in the evaluation of the effects of the national strategy to prevent and combat poverty, chaired by Louis Schweitzer.</t>
+  </si>
+  <si>
+    <t>Propose public policy initiatives focusing on the development, fulfilment and acquisition of young children.</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1147,6 +1162,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1520,13 +1536,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -1597,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89004A4C-135E-AE46-AB58-A9B77E14C3A4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1629,16 +1645,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
         <v>117</v>
@@ -1650,16 +1666,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>201</v>
       </c>
       <c r="E3" t="s">
         <v>116</v>
@@ -1679,7 +1695,7 @@
         <v>107</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
         <v>115</v>
@@ -1710,7 +1726,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1730,7 +1746,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
         <v>114</v>
@@ -1750,7 +1766,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
@@ -1762,7 +1778,7 @@
         <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1770,7 +1786,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>110</v>
@@ -1782,7 +1798,7 @@
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1790,10 +1806,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -1810,7 +1826,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
         <v>108</v>
@@ -1830,7 +1846,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
@@ -1907,7 +1923,7 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1927,7 +1943,7 @@
         <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2160,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8740F03-494A-C94E-AF3E-269AA0D15B6B}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2196,42 +2212,48 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>292</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2242,22 +2264,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2271,19 +2293,19 @@
         <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -2293,28 +2315,54 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="20"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10"/>
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="20"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="10"/>
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10"/>
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="20"/>
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2359,7 +2407,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
@@ -2392,13 +2440,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2785,7 +2833,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6">
         <v>2024</v>
@@ -2920,7 +2968,7 @@
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2" s="24">
         <v>2024</v>
@@ -2952,7 +3000,7 @@
         <v>2024</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>23</v>
@@ -3002,7 +3050,7 @@
         <v>2024</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>23</v>
@@ -3014,13 +3062,13 @@
     <row r="6" spans="1:8" ht="221">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E6" s="24">
         <v>2024</v>
@@ -3090,7 +3138,7 @@
         <v>128</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E9" s="24">
         <v>2024</v>
@@ -3123,7 +3171,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>64</v>
@@ -3152,23 +3200,23 @@
     </row>
     <row r="2" spans="1:9" ht="136">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F2" s="24">
         <v>2024</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>23</v>
@@ -3179,11 +3227,11 @@
     </row>
     <row r="3" spans="1:9" ht="289">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>46</v>
@@ -3195,36 +3243,36 @@
         <v>2024</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="119">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F4" s="24">
         <v>2024</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>23</v>
@@ -3235,11 +3283,11 @@
     </row>
     <row r="5" spans="1:9" ht="306">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>52</v>
@@ -3251,7 +3299,7 @@
         <v>2024</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>23</v>
@@ -3262,23 +3310,23 @@
     </row>
     <row r="6" spans="1:9" ht="170">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F6" s="24">
         <v>2024</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>23</v>
@@ -3335,7 +3383,7 @@
     </row>
     <row r="9" spans="1:9" ht="85">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="26" t="s">
@@ -3345,13 +3393,13 @@
         <v>128</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F9" s="24">
         <v>2024</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>23</v>
@@ -3382,7 +3430,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -3403,174 +3451,174 @@
         <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" t="s">
         <v>216</v>
       </c>
-      <c r="B2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" t="s">
-        <v>218</v>
-      </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
         <v>221</v>
       </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3579,24 +3627,24 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -3605,13 +3653,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataEn.xlsx
+++ b/Data/ArthurHeimCareerDataEn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D5B235-577B-B54E-8B14-9E0F5D089951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA54AD4-DD60-2F41-A621-536719483FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="500" windowWidth="27240" windowHeight="19200" activeTab="2" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="8220" yWindow="500" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="295">
   <si>
     <t>Degree</t>
   </si>
@@ -921,12 +921,6 @@
     <t>Paris School of Economics - EHESS, ED-465, Paris I - Panthéon Sorbonne</t>
   </si>
   <si>
-    <t>\bf{R \&amp; R} Nature Human Behaviour</t>
-  </si>
-  <si>
-    <t>\bf{R \&amp; R} European Economic Review</t>
-  </si>
-  <si>
     <t>May 2025</t>
   </si>
   <si>
@@ -991,6 +985,18 @@
   </si>
   <si>
     <t>Propose public policy initiatives focusing on the development, fulfilment and acquisition of young children.</t>
+  </si>
+  <si>
+    <t>Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{\bf Forthcoming} </t>
+  </si>
+  <si>
+    <t>{\bf R \&amp; R} Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t>{\bf R \&amp; R} European Economic Review</t>
   </si>
 </sst>
 </file>
@@ -1645,16 +1651,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
         <v>117</v>
@@ -1695,7 +1701,7 @@
         <v>107</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
         <v>115</v>
@@ -1726,7 +1732,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>114</v>
@@ -1766,7 +1772,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
@@ -1778,7 +1784,7 @@
         <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
         <v>110</v>
@@ -1798,7 +1804,7 @@
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -1806,10 +1812,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -1826,7 +1832,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
         <v>108</v>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
         <v>105</v>
@@ -2178,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8740F03-494A-C94E-AF3E-269AA0D15B6B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2215,10 +2221,10 @@
         <v>191</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2" s="5">
         <v>2025</v>
@@ -2227,7 +2233,7 @@
         <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>23</v>
@@ -2253,7 +2259,7 @@
         <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2279,7 +2285,7 @@
         <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2293,7 +2299,7 @@
         <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
@@ -2319,7 +2325,7 @@
         <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
@@ -3163,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
@@ -3266,7 +3272,7 @@
         <v>243</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F4" s="24">
         <v>2024</v>
@@ -3320,10 +3326,10 @@
         <v>70</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="24">
-        <v>2024</v>
+        <v>291</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>238</v>
@@ -3393,7 +3399,7 @@
         <v>128</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="F9" s="24">
         <v>2024</v>
